--- a/Statistics/Correlation_Regression.xlsx
+++ b/Statistics/Correlation_Regression.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Trained</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>&lt;0.005</t>
-  </si>
-  <si>
-    <t>plot 3</t>
   </si>
   <si>
     <t>SIR</t>
@@ -103,6 +100,66 @@
     <t>방역 정책을 더 올렸어야 했다 
 or 
 방역 정책을 덜 낮춰야 했다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infected</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>up1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Movement</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Movement가 클 수록 Difference가 작아진다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infected</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>down2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population이 클수록 Difference가 작아진다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Movement</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Movement가 클수록 Difference가 작아진다.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -852,6 +909,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -981,71 +1077,80 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1112,13 +1217,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>32153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1166,15 +1271,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1495425</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139604</xdr:rowOff>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>130079</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1198,7 +1303,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3590925" y="1524000"/>
+          <a:off x="3448050" y="2152650"/>
           <a:ext cx="3009900" cy="4302029"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1220,16 +1325,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1781176</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>39447</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>48972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>40980</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1253,8 +1358,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6886576" y="1534872"/>
-          <a:ext cx="3086100" cy="4275378"/>
+          <a:off x="266701" y="7002222"/>
+          <a:ext cx="3019424" cy="4183008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1275,16 +1380,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1114426</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57597</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1600201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>224993</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>301193</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1308,7 +1413,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10515601" y="1972122"/>
+          <a:off x="6705601" y="6925122"/>
           <a:ext cx="2996767" cy="4266754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1338,7 +1443,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1386,13 +1491,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1434,6 +1539,116 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6648450" y="2171700"/>
+          <a:ext cx="3009900" cy="4323994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1258538</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3419475" y="6962775"/>
+          <a:ext cx="2944463" cy="4219575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1702,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I8"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1720,137 +1935,181 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="15" t="s">
-        <v>26</v>
+      <c r="H5" s="16"/>
+      <c r="I5" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="G4:I4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="H5:H9"/>
+    <mergeCell ref="I5:I9"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
